--- a/sc2002/src/main/resources/User.xlsx
+++ b/sc2002/src/main/resources/User.xlsx
@@ -1,68 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Russe\OneDrive\Documents\GitHub\SC2002\sc2002\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7E8A0F-7C3F-4056-B3A1-C064815D23F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="2160" windowWidth="15960" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>Hospital ID</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
   <si>
     <t>D001</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>D002</t>
   </si>
   <si>
+    <t>hello</t>
+  </si>
+  <si>
     <t>P001</t>
   </si>
   <si>
     <t>A001</t>
   </si>
   <si>
-    <t>Hospital ID</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>P1001</t>
   </si>
   <si>
     <t>P1002</t>
   </si>
   <si>
+    <t>abcdefg</t>
+  </si>
+  <si>
     <t>P1003</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>abcdefg</t>
+    <t>asda</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,10 +77,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -97,55 +106,76 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -178,79 +208,79 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -271,54 +301,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -328,7 +357,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -337,7 +366,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -346,7 +375,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -354,10 +383,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -386,7 +415,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -399,13 +428,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -423,81 +451,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="10.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="24.719285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>123123</v>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/src/main/resources/User.xlsx
+++ b/sc2002/src/main/resources/User.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Hospital ID</t>
   </si>
@@ -25,21 +25,24 @@
     <t>D001</t>
   </si>
   <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
-    <t>D002</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
     <t>P001</t>
   </si>
   <si>
     <t>A001</t>
   </si>
   <si>
+    <t>admin</t>
+  </si>
+  <si>
     <t>P1001</t>
   </si>
   <si>
@@ -53,12 +56,6 @@
   </si>
   <si>
     <t>asda</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -66,7 +63,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +81,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -130,27 +133,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -461,72 +461,72 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="10.576428571428572"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="24.719285714285714"/>
+    <col min="1" max="1" style="5" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="24.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/src/main/resources/User.xlsx
+++ b/sc2002/src/main/resources/User.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Hospital ID</t>
   </si>
@@ -63,7 +63,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,12 +75,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -133,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -142,9 +136,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -461,8 +452,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="10.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="24.719285714285714"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -473,7 +464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -481,7 +472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -489,7 +480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -497,7 +488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -505,15 +496,15 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -525,7 +516,7 @@
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
     </row>

--- a/sc2002/src/main/resources/User.xlsx
+++ b/sc2002/src/main/resources/User.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Hospital ID</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>asda</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">

--- a/sc2002/src/main/resources/User.xlsx
+++ b/sc2002/src/main/resources/User.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Hospital ID</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>pa</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">

--- a/sc2002/src/main/resources/User.xlsx
+++ b/sc2002/src/main/resources/User.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmund\Documents\GitHub\SC2002\sc2002\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D63036-B67E-4502-95B0-472BE42936E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="4188" yWindow="4692" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Hospital ID</t>
   </si>
@@ -59,12 +65,24 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>P003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -130,32 +148,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -166,10 +181,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -207,71 +222,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -299,7 +314,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -322,11 +337,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -335,13 +350,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -351,7 +366,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -360,7 +375,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -369,7 +384,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -377,10 +392,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -445,21 +460,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="10.576428571428572"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="24.719285714285714"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="24.6640625"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,60 +484,92 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/src/main/resources/User.xlsx
+++ b/sc2002/src/main/resources/User.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Hospital ID</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>P003</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>P004</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -572,6 +578,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s" s="3">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sc2002/src/main/resources/User.xlsx
+++ b/sc2002/src/main/resources/User.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Hospital ID</t>
   </si>
@@ -37,6 +37,9 @@
     <t>P001</t>
   </si>
   <si>
+    <t>pa</t>
+  </si>
+  <si>
     <t>A001</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>P1001</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>P1002</t>
   </si>
   <si>
@@ -56,12 +62,6 @@
   </si>
   <si>
     <t>asda</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>pa</t>
   </si>
 </sst>
 </file>
@@ -458,8 +458,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="10.576428571428572"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="24.719285714285714"/>
+    <col min="1" max="1" style="4" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="24.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -491,39 +491,39 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/src/main/resources/User.xlsx
+++ b/sc2002/src/main/resources/User.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Hospital ID</t>
   </si>
@@ -61,6 +61,9 @@
   <si>
     <t>asda</t>
   </si>
+  <si>
+    <t>P002</t>
+  </si>
 </sst>
 </file>
 
@@ -104,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -174,6 +177,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/sc2002/src/main/resources/User.xlsx
+++ b/sc2002/src/main/resources/User.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Hospital ID</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>P002</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -182,7 +185,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/src/main/resources/User.xlsx
+++ b/sc2002/src/main/resources/User.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="User" r:id="rId3" sheetId="1"/>
+    <sheet r:id="rId1" sheetId="1" name="User"/>
   </sheets>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Hospital ID</t>
   </si>
@@ -66,17 +68,23 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>P1004</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,7 +95,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -102,93 +110,407 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F818D"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="12.43357142857143"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sc2002/src/main/resources/User.xlsx
+++ b/sc2002/src/main/resources/User.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Hospital ID</t>
   </si>
@@ -68,12 +68,6 @@
   </si>
   <si>
     <t>b</t>
-  </si>
-  <si>
-    <t>P1004</t>
-  </si>
-  <si>
-    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -420,14 +414,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="12.43357142857143"/>
+    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -502,14 +496,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sc2002/src/main/resources/User.xlsx
+++ b/sc2002/src/main/resources/User.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Hospital ID</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>P1004</t>
   </si>
 </sst>
 </file>
@@ -414,14 +417,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -496,6 +499,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sc2002/src/main/resources/User.xlsx
+++ b/sc2002/src/main/resources/User.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Hospital ID</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>b</t>
-  </si>
-  <si>
-    <t>P1004</t>
   </si>
 </sst>
 </file>
@@ -417,14 +414,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="12.43357142857143"/>
+    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -499,14 +496,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sc2002/src/main/resources/User.xlsx
+++ b/sc2002/src/main/resources/User.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="User" r:id="rId3" sheetId="1"/>
+    <sheet r:id="rId1" sheetId="1" name="User"/>
   </sheets>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -71,12 +73,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,7 +89,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -102,93 +104,399 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F818D"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>